--- a/medicine/Nettoyage et hygiène/Laveur_de_vitres/Laveur_de_vitres.xlsx
+++ b/medicine/Nettoyage et hygiène/Laveur_de_vitres/Laveur_de_vitres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un laveur de vitres, ou laveur de carreaux, est une personne dont le métier consiste à nettoyer et à entretenir les vitres d'un bâtiment que ce soit pour des gratte-ciel et des immeubles comme les vitrines des magasins ou les fenêtres des particuliers.
 Pour les vitrages en hauteur, il utilise généralement une petite plate-forme métallique pouvant se déplacer le long des façades à laver mais dans certains cas il est possible d'utiliser des cordes d'escalade. On appelle ces personnes des cordistes.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce métier existe depuis le XIXe siècle[réf. nécessaire].
 </t>
@@ -543,7 +557,9 @@
           <t>Risques du métier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les risques du métier sont multiples. Ils incluent la possibilité de glisser sur de l'eau ou du savon, et les chutes de hauteur.
 </t>
@@ -574,7 +590,9 @@
           <t>Qualifications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, comme dans de nombreux pays du monde, ce métier ne nécessite aucune qualification[réf. nécessaire].
 </t>
